--- a/NEW HR/MERJILLA, JEANETTE.xlsx
+++ b/NEW HR/MERJILLA, JEANETTE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0D0B1-5B9D-42C4-85CA-ED740DDC6013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -330,12 +331,15 @@
   </si>
   <si>
     <t>BDAY 7/19/2023</t>
+  </si>
+  <si>
+    <t>10/24,25/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -717,17 +721,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -737,6 +738,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,7 +1252,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1265,25 +1269,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K132" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K132" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1295,25 +1299,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1620,34 +1624,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A89" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A101" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
+      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1659,16 +1663,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1677,16 +1681,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1697,16 +1701,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1714,7 +1718,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1727,24 +1731,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1788,7 +1792,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>16.75</v>
+        <v>16</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1798,12 +1802,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>37.75</v>
+        <v>39</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -1825,7 +1829,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1845,7 +1849,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1891,7 +1895,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1911,7 +1915,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1931,7 +1935,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1951,7 +1955,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1971,7 +1975,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1997,7 +2001,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>53</v>
@@ -2019,7 +2023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43344</v>
       </c>
@@ -2039,7 +2043,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43374</v>
       </c>
@@ -2065,7 +2069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
@@ -2109,7 +2113,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="21" t="s">
         <v>49</v>
@@ -2157,7 +2161,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="21" t="s">
         <v>44</v>
@@ -2179,7 +2183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43497</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="21" t="s">
         <v>47</v>
@@ -2227,7 +2231,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43525</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="21" t="s">
         <v>47</v>
@@ -2275,7 +2279,7 @@
         <v>43537</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="21" t="s">
         <v>47</v>
@@ -2297,7 +2301,7 @@
         <v>43546</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43556</v>
       </c>
@@ -2317,7 +2321,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43586</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43617</v>
       </c>
@@ -2369,7 +2373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43647</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="21" t="s">
         <v>63</v>
@@ -2417,7 +2421,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43678</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>47</v>
@@ -2465,7 +2469,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="21" t="s">
         <v>47</v>
@@ -2487,7 +2491,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="21" t="s">
         <v>65</v>
@@ -2509,7 +2513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43709</v>
       </c>
@@ -2529,7 +2533,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>43739</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="21" t="s">
         <v>63</v>
@@ -2577,7 +2581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="21" t="s">
         <v>47</v>
@@ -2599,7 +2603,7 @@
         <v>43747</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -2621,7 +2625,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>43770</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="21" t="s">
         <v>47</v>
@@ -2667,7 +2671,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>43800</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>69</v>
       </c>
@@ -2711,7 +2715,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>43831</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>43862</v>
       </c>
@@ -2763,7 +2767,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>43891</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>43922</v>
       </c>
@@ -2809,7 +2813,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>43952</v>
       </c>
@@ -2829,7 +2833,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>43983</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44013</v>
       </c>
@@ -2881,7 +2885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="21" t="s">
         <v>47</v>
@@ -2903,7 +2907,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="21" t="s">
         <v>44</v>
@@ -2925,7 +2929,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="21" t="s">
         <v>51</v>
@@ -2947,7 +2951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44044</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44075</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="21" t="s">
         <v>51</v>
@@ -3021,7 +3025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>44105</v>
       </c>
@@ -3041,7 +3045,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44136</v>
       </c>
@@ -3061,7 +3065,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>44166</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
         <v>83</v>
       </c>
@@ -3105,7 +3109,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>44197</v>
       </c>
@@ -3125,7 +3129,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>44228</v>
       </c>
@@ -3145,7 +3149,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>44256</v>
       </c>
@@ -3169,7 +3173,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>44287</v>
       </c>
@@ -3189,7 +3193,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>44317</v>
       </c>
@@ -3209,7 +3213,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44348</v>
       </c>
@@ -3229,7 +3233,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>44378</v>
       </c>
@@ -3249,7 +3253,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44409</v>
       </c>
@@ -3269,7 +3273,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44440</v>
       </c>
@@ -3289,7 +3293,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>44470</v>
       </c>
@@ -3309,7 +3313,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44501</v>
       </c>
@@ -3329,7 +3333,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>44531</v>
       </c>
@@ -3349,7 +3353,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>43</v>
       </c>
@@ -3367,7 +3371,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>44562</v>
       </c>
@@ -3387,7 +3391,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>44593</v>
       </c>
@@ -3407,7 +3411,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>44621</v>
       </c>
@@ -3427,7 +3431,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>44652</v>
       </c>
@@ -3447,7 +3451,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>44682</v>
       </c>
@@ -3467,7 +3471,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>44713</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
         <v>44743</v>
       </c>
@@ -3513,7 +3517,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="39"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
         <v>44774</v>
       </c>
@@ -3533,7 +3537,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="39"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
         <v>44805</v>
       </c>
@@ -3553,7 +3557,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="39"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="24">
         <v>44835</v>
       </c>
@@ -3573,7 +3577,7 @@
       <c r="J89" s="13"/>
       <c r="K89" s="47"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
         <v>44866</v>
       </c>
@@ -3593,7 +3597,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
         <v>44896</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38" t="s">
         <v>91</v>
       </c>
@@ -3637,7 +3641,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="24">
         <v>44927</v>
       </c>
@@ -3663,7 +3667,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="24">
         <v>44958</v>
       </c>
@@ -3689,7 +3693,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="24"/>
       <c r="B95" s="12" t="s">
         <v>47</v>
@@ -3711,7 +3715,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="24"/>
       <c r="B96" s="12" t="s">
         <v>47</v>
@@ -3733,7 +3737,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24">
         <v>44986</v>
       </c>
@@ -3759,7 +3763,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="24">
         <v>45017</v>
       </c>
@@ -3779,7 +3783,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="24">
         <v>45047</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="24">
         <v>45078</v>
       </c>
@@ -3829,7 +3833,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="24">
         <v>45108</v>
       </c>
@@ -3855,7 +3859,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="24"/>
       <c r="B102" s="12" t="s">
         <v>50</v>
@@ -3875,7 +3879,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="24">
         <v>45139</v>
       </c>
@@ -3895,22 +3899,24 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="24">
         <v>45170</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C104" s="14"/>
+      <c r="C104" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="12">
         <v>1</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="12"/>
-      <c r="G104" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="12"/>
       <c r="I104" s="9"/>
@@ -3919,7 +3925,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="24"/>
       <c r="B105" s="21" t="s">
         <v>47</v>
@@ -3941,13 +3947,17 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="24">
         <v>45200</v>
       </c>
-      <c r="B106" s="12"/>
+      <c r="B106" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="C106" s="14"/>
-      <c r="D106" s="12"/>
+      <c r="D106" s="12">
+        <v>2</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="12"/>
       <c r="G106" s="14" t="str">
@@ -3957,9 +3967,11 @@
       <c r="H106" s="12"/>
       <c r="I106" s="9"/>
       <c r="J106" s="12"/>
-      <c r="K106" s="21"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="24">
         <v>45231</v>
       </c>
@@ -3977,7 +3989,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="24">
         <v>45261</v>
       </c>
@@ -3995,7 +4007,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="24">
         <v>45292</v>
       </c>
@@ -4013,7 +4025,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="24">
         <v>45323</v>
       </c>
@@ -4031,7 +4043,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="24">
         <v>45352</v>
       </c>
@@ -4049,7 +4061,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="24">
         <v>45383</v>
       </c>
@@ -4067,7 +4079,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="24">
         <v>45413</v>
       </c>
@@ -4085,7 +4097,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="24">
         <v>45444</v>
       </c>
@@ -4103,7 +4115,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="24">
         <v>45474</v>
       </c>
@@ -4121,7 +4133,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="24">
         <v>45505</v>
       </c>
@@ -4139,7 +4151,7 @@
       <c r="J116" s="13"/>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="24">
         <v>45536</v>
       </c>
@@ -4157,7 +4169,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="24">
         <v>45566</v>
       </c>
@@ -4175,7 +4187,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="24">
         <v>45597</v>
       </c>
@@ -4193,7 +4205,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="24">
         <v>45627</v>
       </c>
@@ -4211,7 +4223,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="24">
         <v>45658</v>
       </c>
@@ -4229,7 +4241,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="24"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14"/>
@@ -4245,7 +4257,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="24"/>
       <c r="B123" s="13"/>
       <c r="C123" s="14"/>
@@ -4261,7 +4273,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="24"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14"/>
@@ -4277,7 +4289,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="24"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14"/>
@@ -4293,7 +4305,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="24"/>
       <c r="B126" s="13"/>
       <c r="C126" s="14"/>
@@ -4309,7 +4321,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="24"/>
       <c r="B127" s="13"/>
       <c r="C127" s="14"/>
@@ -4325,7 +4337,7 @@
       <c r="J127" s="13"/>
       <c r="K127" s="16"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="24"/>
       <c r="B128" s="12"/>
       <c r="C128" s="14"/>
@@ -4341,7 +4353,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="24"/>
       <c r="B129" s="12"/>
       <c r="C129" s="14"/>
@@ -4357,7 +4369,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="24"/>
       <c r="B130" s="12"/>
       <c r="C130" s="14"/>
@@ -4373,7 +4385,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="24"/>
       <c r="B131" s="12"/>
       <c r="C131" s="14"/>
@@ -4389,7 +4401,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="24"/>
       <c r="B132" s="13"/>
       <c r="C132" s="14"/>
@@ -4407,23 +4419,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4446,34 +4458,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A35" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -4485,16 +4497,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -4503,16 +4515,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -4523,16 +4535,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -4540,7 +4552,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -4553,24 +4565,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4605,7 +4617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -4629,7 +4641,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -4651,7 +4663,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43252</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
         <v>50</v>
@@ -4693,7 +4705,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>58</v>
       </c>
@@ -4711,7 +4723,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43647</v>
       </c>
@@ -4733,7 +4745,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>69</v>
       </c>
@@ -4751,7 +4763,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43831</v>
       </c>
@@ -4773,7 +4785,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43891</v>
       </c>
@@ -4795,7 +4807,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>44013</v>
       </c>
@@ -4817,7 +4829,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>50</v>
@@ -4837,7 +4849,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>44075</v>
       </c>
@@ -4861,7 +4873,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="21" t="s">
         <v>47</v>
@@ -4883,7 +4895,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="21" t="s">
         <v>47</v>
@@ -4905,7 +4917,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>44166</v>
       </c>
@@ -4929,7 +4941,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>83</v>
       </c>
@@ -4947,7 +4959,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>44197</v>
       </c>
@@ -4971,7 +4983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="21" t="s">
         <v>44</v>
@@ -4993,7 +5005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="21" t="s">
         <v>47</v>
@@ -5015,7 +5027,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>44228</v>
       </c>
@@ -5037,7 +5049,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="21" t="s">
         <v>47</v>
@@ -5059,7 +5071,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="21" t="s">
         <v>56</v>
@@ -5079,7 +5091,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>44256</v>
       </c>
@@ -5101,7 +5113,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="21" t="s">
         <v>47</v>
@@ -5123,7 +5135,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="21" t="s">
         <v>47</v>
@@ -5145,7 +5157,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="s">
         <v>43</v>
       </c>
@@ -5163,7 +5175,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44713</v>
       </c>
@@ -5185,7 +5197,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="21" t="s">
         <v>44</v>
@@ -5207,7 +5219,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="21" t="s">
         <v>47</v>
@@ -5229,7 +5241,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>50</v>
@@ -5249,7 +5261,7 @@
         <v>44761</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>44743</v>
       </c>
@@ -5273,7 +5285,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="21" t="s">
         <v>50</v>
@@ -5293,7 +5305,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="21" t="s">
         <v>50</v>
@@ -5313,7 +5325,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>44774</v>
       </c>
@@ -5337,7 +5349,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="21" t="s">
         <v>47</v>
@@ -5359,7 +5371,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44805</v>
       </c>
@@ -5383,7 +5395,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -5405,7 +5417,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="16" t="s">
         <v>47</v>
@@ -5427,7 +5439,7 @@
         <v>44812</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44835</v>
       </c>
@@ -5451,7 +5463,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44866</v>
       </c>
@@ -5475,7 +5487,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>44866</v>
       </c>
@@ -5499,7 +5511,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>44896</v>
       </c>
@@ -5523,7 +5535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>91</v>
       </c>
@@ -5541,7 +5553,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>45078</v>
       </c>
@@ -5563,7 +5575,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -5579,7 +5591,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -5595,7 +5607,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
@@ -5611,7 +5623,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="12"/>
       <c r="C56" s="14"/>
@@ -5627,7 +5639,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
@@ -5643,7 +5655,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -5659,7 +5671,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -5675,7 +5687,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -5691,7 +5703,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -5707,7 +5719,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -5723,7 +5735,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -5739,7 +5751,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
@@ -5755,7 +5767,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -5771,7 +5783,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -5787,7 +5799,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -5803,7 +5815,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="12"/>
       <c r="C68" s="14"/>
@@ -5819,7 +5831,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="12"/>
       <c r="C69" s="14"/>
@@ -5835,7 +5847,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="12"/>
       <c r="C70" s="14"/>
@@ -5851,7 +5863,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -5867,7 +5879,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -5883,7 +5895,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -5899,7 +5911,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -5915,7 +5927,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -5931,7 +5943,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -5947,7 +5959,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -5963,7 +5975,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -5979,7 +5991,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -5995,7 +6007,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -6011,7 +6023,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -6027,7 +6039,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
@@ -6043,7 +6055,7 @@
       <c r="J82" s="13"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -6059,7 +6071,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -6075,7 +6087,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -6091,7 +6103,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24"/>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -6107,7 +6119,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
@@ -6139,10 +6151,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6165,28 +6177,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="41" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="41" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -6199,7 +6211,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -6228,7 +6240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>4.5309999999999997</v>
       </c>
@@ -6252,17 +6264,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="42" t="s">
         <v>28</v>
       </c>
@@ -6283,7 +6295,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="41">
         <v>1</v>
       </c>
@@ -6310,7 +6322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="41">
         <v>2</v>
       </c>
@@ -6336,7 +6348,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="41">
         <v>3</v>
       </c>
@@ -6362,7 +6374,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="41">
         <v>4</v>
       </c>
@@ -6388,7 +6400,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="41">
         <v>5</v>
       </c>
@@ -6414,7 +6426,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="41">
         <v>6</v>
       </c>
@@ -6440,7 +6452,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="41">
         <v>7</v>
       </c>
@@ -6466,7 +6478,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="41">
         <v>8</v>
       </c>
@@ -6492,7 +6504,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="41">
         <v>9</v>
       </c>
@@ -6512,7 +6524,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="41">
         <v>10</v>
       </c>
@@ -6532,7 +6544,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="41">
         <v>11</v>
       </c>
@@ -6552,7 +6564,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="41">
         <v>12</v>
       </c>
@@ -6573,7 +6585,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="41">
         <v>13</v>
       </c>
@@ -6594,7 +6606,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="41">
         <v>14</v>
       </c>
@@ -6615,7 +6627,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="41">
         <v>15</v>
       </c>
@@ -6636,7 +6648,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="41">
         <v>16</v>
       </c>
@@ -6657,7 +6669,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="41">
         <v>17</v>
       </c>
@@ -6678,7 +6690,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="41">
         <v>18</v>
       </c>
@@ -6699,7 +6711,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="41">
         <v>19</v>
       </c>
@@ -6720,7 +6732,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="41">
         <v>20</v>
       </c>
@@ -6741,7 +6753,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="41">
         <v>21</v>
       </c>
@@ -6762,7 +6774,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="41">
         <v>22</v>
       </c>
@@ -6783,7 +6795,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="41">
         <v>23</v>
       </c>
@@ -6804,7 +6816,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="41">
         <v>24</v>
       </c>
@@ -6825,7 +6837,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="41">
         <v>25</v>
       </c>
@@ -6846,7 +6858,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="41">
         <v>26</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="41">
         <v>27</v>
       </c>
@@ -6888,7 +6900,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="41">
         <v>28</v>
       </c>
@@ -6909,7 +6921,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="41">
         <v>29</v>
       </c>
@@ -6930,7 +6942,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="41">
         <v>30</v>
       </c>
@@ -6951,7 +6963,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="41">
         <v>31</v>
       </c>
@@ -6972,7 +6984,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="41">
         <v>32</v>
       </c>
@@ -6981,7 +6993,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="41">
         <v>33</v>
       </c>
@@ -6990,7 +7002,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="41">
         <v>34</v>
       </c>
@@ -6999,7 +7011,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="41">
         <v>35</v>
       </c>
@@ -7008,7 +7020,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="41">
         <v>36</v>
       </c>
@@ -7017,7 +7029,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="41">
         <v>37</v>
       </c>
@@ -7026,7 +7038,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="41">
         <v>38</v>
       </c>
@@ -7035,7 +7047,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="41">
         <v>39</v>
       </c>
@@ -7044,7 +7056,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="41">
         <v>40</v>
       </c>
@@ -7053,7 +7065,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="41">
         <v>41</v>
       </c>
@@ -7062,7 +7074,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="41">
         <v>42</v>
       </c>
@@ -7071,7 +7083,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="41">
         <v>43</v>
       </c>
@@ -7080,7 +7092,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="41">
         <v>44</v>
       </c>
@@ -7089,7 +7101,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="41">
         <v>45</v>
       </c>
@@ -7098,7 +7110,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="41">
         <v>46</v>
       </c>
@@ -7107,7 +7119,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="41">
         <v>47</v>
       </c>
@@ -7116,7 +7128,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="41">
         <v>48</v>
       </c>
@@ -7125,7 +7137,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="41">
         <v>49</v>
       </c>
@@ -7134,7 +7146,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="41">
         <v>50</v>
       </c>
@@ -7143,7 +7155,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="41">
         <v>51</v>
       </c>
@@ -7152,7 +7164,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="41">
         <v>52</v>
       </c>
@@ -7161,7 +7173,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="41">
         <v>53</v>
       </c>
@@ -7170,7 +7182,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="41">
         <v>54</v>
       </c>
@@ -7179,7 +7191,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="41">
         <v>55</v>
       </c>
@@ -7188,7 +7200,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="41">
         <v>56</v>
       </c>
@@ -7197,7 +7209,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="41">
         <v>57</v>
       </c>
@@ -7206,7 +7218,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="41">
         <v>58</v>
       </c>
@@ -7215,7 +7227,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="41">
         <v>59</v>
       </c>
@@ -7224,7 +7236,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="41">
         <v>60</v>
       </c>
@@ -7233,7 +7245,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
